--- a/xlsx/前端和后端_intext.xlsx
+++ b/xlsx/前端和后端_intext.xlsx
@@ -29,7 +29,7 @@
     <t>界面</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_前端和后端</t>
+    <t>政策_政策_维基百科_前端和后端</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E6%9E%B6%E6%9E%84</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E5%8C%96_(%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>抽象化 (計算機科學)</t>
+    <t>抽象化 (计算机科学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%BD%A2%E7%94%A8%E6%88%B7%E7%95%8C%E9%9D%A2</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/Windows_%E6%AA%94%E6%A1%88%E7%B8%BD%E7%AE%A1</t>
   </si>
   <si>
-    <t>Windows 檔案總管</t>
+    <t>Windows 档案总管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%BB%B6%E7%B3%BB%E7%BB%9F</t>
